--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\NetBeansProjects\PruebaWord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02106DD5-A217-4B2F-B97A-386FDDA12909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F89B5E-6D98-4B0B-8205-D8F759401EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="1425" windowWidth="19575" windowHeight="11115" xr2:uid="{B8B4B7E4-4FBC-4F43-95CE-099C8D15280D}"/>
+    <workbookView xWindow="-21720" yWindow="1305" windowWidth="21840" windowHeight="13740" xr2:uid="{B8B4B7E4-4FBC-4F43-95CE-099C8D15280D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Nombre</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>evaluation_bottom</t>
+  </si>
+  <si>
+    <t>tematics_name_axis1</t>
+  </si>
+  <si>
+    <t>tematics_name_axis2</t>
+  </si>
+  <si>
+    <t>tematics_name_axis3</t>
+  </si>
+  <si>
+    <t>tematics_name_axis4</t>
   </si>
 </sst>
 </file>
@@ -582,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC13CA3C-CCE6-4048-B3DD-2DA5802ECBB0}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -741,110 +753,142 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B41" t="s">
         <v>61</v>
       </c>
     </row>
